--- a/corehq/apps/data_dictionary/tests/data/clean_data_dictionary.xlsx
+++ b/corehq/apps/data_dictionary/tests/data/clean_data_dictionary.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t xml:space="preserve">Case Property</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">True description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 description</t>
   </si>
   <si>
     <t xml:space="preserve">No</t>
@@ -161,8 +167,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -183,67 +193,68 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
+      <c r="E4" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -260,47 +271,73 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.74"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -323,57 +360,57 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="1" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -394,47 +431,49 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2734375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="0" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>18</v>
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>20</v>
-      </c>
-    </row>
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>

--- a/corehq/apps/data_dictionary/tests/data/clean_data_dictionary.xlsx
+++ b/corehq/apps/data_dictionary/tests/data/clean_data_dictionary.xlsx
@@ -43,19 +43,19 @@
     <t xml:space="preserve">dateprop</t>
   </si>
   <si>
-    <t xml:space="preserve">date</t>
+    <t xml:space="preserve">Date</t>
   </si>
   <si>
     <t xml:space="preserve">plainprop</t>
   </si>
   <si>
-    <t xml:space="preserve">plain</t>
+    <t xml:space="preserve">Plain</t>
   </si>
   <si>
     <t xml:space="preserve">selectprop</t>
   </si>
   <si>
-    <t xml:space="preserve">select</t>
+    <t xml:space="preserve">Multiple Choice</t>
   </si>
   <si>
     <t xml:space="preserve">Valid Value</t>
@@ -199,7 +199,12 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.12"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -277,9 +282,11 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -357,10 +364,10 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -437,7 +444,12 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.28125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.79"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">

--- a/corehq/apps/data_dictionary/tests/data/clean_data_dictionary.xlsx
+++ b/corehq/apps/data_dictionary/tests/data/clean_data_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="caseType1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,9 +23,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t xml:space="preserve">Case Property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required</t>
   </si>
   <si>
     <t xml:space="preserve">Group</t>
@@ -193,17 +196,105 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.12"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.29296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.32"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -211,52 +302,54 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
+      <c r="A4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -271,80 +364,78 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.31"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.29296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F4" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
@@ -356,83 +447,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="n">
-        <f aca="false">FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -440,11 +454,11 @@
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.29296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.51"/>
@@ -456,32 +470,32 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/corehq/apps/data_dictionary/tests/data/clean_data_dictionary.xlsx
+++ b/corehq/apps/data_dictionary/tests/data/clean_data_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="caseType1" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="24">
   <si>
     <t xml:space="preserve">Case Property</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Label</t>
   </si>
   <si>
     <t xml:space="preserve">Deprecated</t>
@@ -167,12 +170,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,81 +196,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1048576"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -272,7 +282,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
@@ -284,71 +294,71 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="31.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="29.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>17</v>
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -357,75 +367,78 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="n">
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="n">
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -434,62 +447,62 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="37.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="36.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="37.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/corehq/apps/data_dictionary/tests/data/clean_data_dictionary.xlsx
+++ b/corehq/apps/data_dictionary/tests/data/clean_data_dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="caseType1" sheetId="1" state="visible" r:id="rId2"/>
@@ -28,6 +28,9 @@
     <t xml:space="preserve">Case Property</t>
   </si>
   <si>
+    <t xml:space="preserve">Label</t>
+  </si>
+  <si>
     <t xml:space="preserve">Group</t>
   </si>
   <si>
@@ -35,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label</t>
   </si>
   <si>
     <t xml:space="preserve">Deprecated</t>
@@ -202,16 +202,16 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="26.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="25.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="10.72"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,7 +238,7 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
@@ -250,7 +250,7 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="n">
@@ -262,7 +262,7 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="n">
@@ -373,8 +373,8 @@
   </sheetPr>
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.2890625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -403,7 +403,7 @@
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
@@ -415,7 +415,7 @@
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="2" t="n">
@@ -427,7 +427,7 @@
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="2" t="n">
